--- a/data/trans_orig/P6709-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C97DA7D-63DF-4B56-8043-75A127749A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE2EB8A1-6D1B-42E6-997E-7D57F2CB64E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0684992C-D055-4402-8C54-985EAABC9B92}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E16FB33-1E98-4A4E-A2CC-0928590DC8A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="521">
   <si>
     <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2012 (Tasa respuesta: 33,73%)</t>
   </si>
@@ -78,25 +78,25 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>17,45%</t>
+    <t>17,82%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
   </si>
   <si>
     <t>10,1%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,10 +105,10 @@
     <t>6,51%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>4,36%</t>
@@ -117,1474 +117,1489 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
     <t>26,61%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
+    <t>24,94%</t>
   </si>
 </sst>
 </file>
@@ -1996,7 +2011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A01FA1A-5451-4F7B-83FC-066A815D3F85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B58E88-CAC4-4236-B4BE-04080BB30BF2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2428,13 +2443,13 @@
         <v>16661</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -2443,13 +2458,13 @@
         <v>8796</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -2458,13 +2473,13 @@
         <v>25457</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2494,13 @@
         <v>15555</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -2494,13 +2509,13 @@
         <v>9551</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -2509,13 +2524,13 @@
         <v>25106</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2545,13 @@
         <v>39127</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -2545,13 +2560,13 @@
         <v>28121</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>65</v>
@@ -2560,13 +2575,13 @@
         <v>67249</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2596,13 @@
         <v>53234</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -2596,13 +2611,13 @@
         <v>36505</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -2611,13 +2626,13 @@
         <v>89739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2647,13 @@
         <v>91605</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>51</v>
@@ -2647,13 +2662,13 @@
         <v>53115</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>139</v>
@@ -2662,13 +2677,13 @@
         <v>144720</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,7 +2739,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2736,13 +2751,13 @@
         <v>25124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -2751,13 +2766,13 @@
         <v>22455</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -2766,13 +2781,13 @@
         <v>47579</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2802,13 @@
         <v>27676</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -2802,13 +2817,13 @@
         <v>23437</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
@@ -2817,13 +2832,13 @@
         <v>51113</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2853,13 @@
         <v>81749</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -2853,13 +2868,13 @@
         <v>51271</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>124</v>
@@ -2868,13 +2883,13 @@
         <v>133019</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,13 +2904,13 @@
         <v>108299</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -2904,13 +2919,13 @@
         <v>56506</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>151</v>
@@ -2919,13 +2934,13 @@
         <v>164804</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,13 +2955,13 @@
         <v>166820</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>103</v>
@@ -2955,13 +2970,13 @@
         <v>114592</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>258</v>
@@ -2970,13 +2985,13 @@
         <v>281412</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,7 +3047,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3044,13 +3059,13 @@
         <v>22629</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -3059,13 +3074,13 @@
         <v>21374</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -3074,13 +3089,13 @@
         <v>44003</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3110,13 @@
         <v>25244</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3110,13 +3125,13 @@
         <v>7087</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -3125,13 +3140,13 @@
         <v>32331</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3161,13 @@
         <v>58286</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -3161,13 +3176,13 @@
         <v>44078</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>89</v>
@@ -3176,13 +3191,13 @@
         <v>102365</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3212,13 @@
         <v>67900</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -3212,13 +3227,13 @@
         <v>46729</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -3227,13 +3242,13 @@
         <v>114629</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3263,13 @@
         <v>146483</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -3263,13 +3278,13 @@
         <v>93995</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>216</v>
@@ -3278,13 +3293,13 @@
         <v>240477</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,7 +3355,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3352,13 +3367,13 @@
         <v>29787</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
@@ -3367,13 +3382,13 @@
         <v>34149</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -3382,13 +3397,13 @@
         <v>63936</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3418,13 @@
         <v>27323</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -3418,13 +3433,13 @@
         <v>27116</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -3433,13 +3448,13 @@
         <v>54439</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3469,13 @@
         <v>109129</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -3469,13 +3484,13 @@
         <v>69558</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>168</v>
@@ -3484,13 +3499,13 @@
         <v>178687</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3520,13 @@
         <v>113413</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>66</v>
@@ -3520,13 +3535,13 @@
         <v>66233</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>181</v>
@@ -3535,13 +3550,13 @@
         <v>179647</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3571,13 @@
         <v>136176</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>98</v>
@@ -3571,13 +3586,13 @@
         <v>101471</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>227</v>
@@ -3586,13 +3601,13 @@
         <v>237647</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3675,13 @@
         <v>97602</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>85</v>
@@ -3675,13 +3690,13 @@
         <v>91047</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>172</v>
@@ -3690,13 +3705,13 @@
         <v>188649</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3726,13 @@
         <v>99167</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H35" s="7">
         <v>61</v>
@@ -3726,13 +3741,13 @@
         <v>68247</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="M35" s="7">
         <v>153</v>
@@ -3741,13 +3756,13 @@
         <v>167413</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3777,13 @@
         <v>296208</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H36" s="7">
         <v>177</v>
@@ -3777,13 +3792,13 @@
         <v>196235</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M36" s="7">
         <v>458</v>
@@ -3792,13 +3807,13 @@
         <v>492443</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3828,13 @@
         <v>356282</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H37" s="7">
         <v>200</v>
@@ -3828,13 +3843,13 @@
         <v>210776</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>44</v>
+        <v>269</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="M37" s="7">
         <v>539</v>
@@ -3843,13 +3858,13 @@
         <v>567058</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3879,13 @@
         <v>564694</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H38" s="7">
         <v>345</v>
@@ -3879,13 +3894,13 @@
         <v>374046</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M38" s="7">
         <v>873</v>
@@ -3894,13 +3909,13 @@
         <v>938740</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,7 +3971,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3977,7 +3992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEA8B0A-4A4C-438B-A6C0-0C880F9A87D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C10689F-14B3-45E6-82D2-F01B0AF8EACB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3994,7 +4009,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4101,13 +4116,13 @@
         <v>4159</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4116,13 +4131,13 @@
         <v>3623</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4131,13 +4146,13 @@
         <v>7781</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4167,13 @@
         <v>6142</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>155</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>287</v>
+        <v>214</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4167,13 +4182,13 @@
         <v>1647</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4182,13 +4197,13 @@
         <v>7789</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>69</v>
+        <v>296</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4218,13 @@
         <v>10547</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4218,13 +4233,13 @@
         <v>3582</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4233,13 +4248,13 @@
         <v>14129</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,13 +4269,13 @@
         <v>6497</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4269,13 +4284,13 @@
         <v>10890</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -4284,13 +4299,13 @@
         <v>17387</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4320,13 @@
         <v>16677</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -4320,13 +4335,13 @@
         <v>10150</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -4335,13 +4350,13 @@
         <v>26827</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4424,13 @@
         <v>21243</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -4424,13 +4439,13 @@
         <v>20262</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4439,13 +4454,13 @@
         <v>41505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4475,13 @@
         <v>27655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -4475,13 +4490,13 @@
         <v>18350</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -4490,13 +4505,13 @@
         <v>46005</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4526,13 @@
         <v>50108</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -4526,13 +4541,13 @@
         <v>29663</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M12" s="7">
         <v>81</v>
@@ -4541,13 +4556,13 @@
         <v>79771</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>341</v>
+        <v>88</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4577,13 @@
         <v>44956</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4577,13 +4592,13 @@
         <v>40489</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -4592,13 +4607,13 @@
         <v>85445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4628,13 @@
         <v>55307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -4628,13 +4643,13 @@
         <v>28714</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>37</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -4643,13 +4658,13 @@
         <v>84021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,7 +4720,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4717,13 +4732,13 @@
         <v>44189</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -4732,13 +4747,13 @@
         <v>29803</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -4747,13 +4762,13 @@
         <v>73992</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4783,13 @@
         <v>57378</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -4783,13 +4798,13 @@
         <v>44849</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>371</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -4798,13 +4813,13 @@
         <v>102226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4834,13 @@
         <v>95353</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="H18" s="7">
         <v>65</v>
@@ -4834,13 +4849,13 @@
         <v>64082</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M18" s="7">
         <v>150</v>
@@ -4849,13 +4864,13 @@
         <v>159435</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4885,13 @@
         <v>97469</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -4885,13 +4900,13 @@
         <v>54825</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M19" s="7">
         <v>143</v>
@@ -4900,13 +4915,13 @@
         <v>152294</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4936,13 @@
         <v>119653</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H20" s="7">
         <v>76</v>
@@ -4936,13 +4951,13 @@
         <v>80212</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
         <v>182</v>
@@ -4951,13 +4966,13 @@
         <v>199864</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,7 +5028,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5025,13 +5040,13 @@
         <v>40996</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>401</v>
+        <v>160</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -5040,13 +5055,13 @@
         <v>24436</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -5055,13 +5070,13 @@
         <v>65432</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>408</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5091,13 @@
         <v>53482</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>411</v>
+        <v>205</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>412</v>
+        <v>128</v>
       </c>
       <c r="H23" s="7">
         <v>50</v>
@@ -5091,13 +5106,13 @@
         <v>50343</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M23" s="7">
         <v>99</v>
@@ -5106,13 +5121,13 @@
         <v>103825</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5142,13 @@
         <v>114894</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H24" s="7">
         <v>91</v>
@@ -5142,13 +5157,13 @@
         <v>92162</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M24" s="7">
         <v>191</v>
@@ -5157,13 +5172,13 @@
         <v>207056</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5193,13 @@
         <v>74936</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -5193,13 +5208,13 @@
         <v>43305</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -5208,13 +5223,13 @@
         <v>118241</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5244,13 @@
         <v>79512</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>58</v>
@@ -5244,13 +5259,13 @@
         <v>60313</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M26" s="7">
         <v>131</v>
@@ -5259,13 +5274,13 @@
         <v>139825</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,7 +5336,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5333,13 +5348,13 @@
         <v>43554</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -5348,13 +5363,13 @@
         <v>31869</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M28" s="7">
         <v>72</v>
@@ -5363,13 +5378,13 @@
         <v>75423</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>450</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>451</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5399,13 @@
         <v>42782</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -5399,13 +5414,13 @@
         <v>35215</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M29" s="7">
         <v>75</v>
@@ -5414,10 +5429,10 @@
         <v>77997</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>457</v>
@@ -5441,7 +5456,7 @@
         <v>459</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>352</v>
+        <v>460</v>
       </c>
       <c r="H30" s="7">
         <v>74</v>
@@ -5450,13 +5465,13 @@
         <v>75202</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M30" s="7">
         <v>179</v>
@@ -5465,13 +5480,13 @@
         <v>180494</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>129</v>
+        <v>464</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5501,13 @@
         <v>97295</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H31" s="7">
         <v>81</v>
@@ -5501,13 +5516,13 @@
         <v>86572</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M31" s="7">
         <v>177</v>
@@ -5516,13 +5531,13 @@
         <v>183867</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5552,13 @@
         <v>112248</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>52</v>
+        <v>477</v>
       </c>
       <c r="H32" s="7">
         <v>88</v>
@@ -5552,13 +5567,13 @@
         <v>96616</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>215</v>
+        <v>478</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="M32" s="7">
         <v>197</v>
@@ -5567,13 +5582,13 @@
         <v>208864</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>476</v>
+        <v>350</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,13 +5656,13 @@
         <v>154140</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>120</v>
+        <v>485</v>
       </c>
       <c r="H34" s="7">
         <v>107</v>
@@ -5656,13 +5671,13 @@
         <v>109992</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="M34" s="7">
         <v>246</v>
@@ -5671,13 +5686,13 @@
         <v>264132</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>486</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5707,13 @@
         <v>187440</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>489</v>
+        <v>87</v>
       </c>
       <c r="H35" s="7">
         <v>146</v>
@@ -5707,13 +5722,13 @@
         <v>150403</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M35" s="7">
         <v>322</v>
@@ -5722,13 +5737,13 @@
         <v>337843</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5758,13 @@
         <v>376194</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>497</v>
+        <v>47</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H36" s="7">
         <v>266</v>
@@ -5758,13 +5773,13 @@
         <v>264690</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="M36" s="7">
         <v>615</v>
@@ -5773,13 +5788,13 @@
         <v>640885</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5809,13 @@
         <v>321151</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>432</v>
+        <v>508</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H37" s="7">
         <v>232</v>
@@ -5809,13 +5824,13 @@
         <v>236082</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>258</v>
+        <v>510</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>506</v>
+        <v>269</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="M37" s="7">
         <v>537</v>
@@ -5824,13 +5839,13 @@
         <v>557233</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>140</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5860,13 @@
         <v>383397</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H38" s="7">
         <v>262</v>
@@ -5860,13 +5875,13 @@
         <v>276004</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>26</v>
+        <v>516</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="M38" s="7">
         <v>616</v>
@@ -5875,13 +5890,13 @@
         <v>659401</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>302</v>
+        <v>519</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>515</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,7 +5952,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6709-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE2EB8A1-6D1B-42E6-997E-7D57F2CB64E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1440CB69-E3F2-4974-9F1E-C7A33C236D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E16FB33-1E98-4A4E-A2CC-0928590DC8A5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{224D075C-AD8D-4690-BEB6-E228C915E411}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="532">
   <si>
     <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2012 (Tasa respuesta: 33,73%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -75,28 +75,28 @@
     <t>6,58%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
   </si>
   <si>
     <t>10,1%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,10 +105,10 @@
     <t>6,51%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>4,36%</t>
@@ -117,16 +117,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>26,95%</t>
+    <t>21,45%</t>
   </si>
   <si>
     <t>5,82%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -135,1471 +135,1504 @@
     <t>15,3%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
   </si>
   <si>
     <t>14,65%</t>
   </si>
   <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
     <t>7,89%</t>
   </si>
   <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
   </si>
   <si>
     <t>28,74%</t>
   </si>
   <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
   </si>
   <si>
     <t>28,43%</t>
   </si>
   <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
     <t>26,06%</t>
   </si>
   <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
   </si>
   <si>
     <t>22,76%</t>
   </si>
   <si>
-    <t>25,23%</t>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>22,66%</t>
   </si>
   <si>
-    <t>24,36%</t>
+    <t>24,43%</t>
   </si>
   <si>
     <t>26,96%</t>
   </si>
   <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>24,94%</t>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
   </si>
 </sst>
 </file>
@@ -2011,7 +2044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B58E88-CAC4-4236-B4BE-04080BB30BF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2DB793-7BB7-4343-93F0-AA7A0C00E514}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2303,13 +2336,13 @@
         <v>4803</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -2318,19 +2351,19 @@
         <v>18238</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>24</v>
@@ -2339,13 +2372,13 @@
         <v>23610</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -2354,13 +2387,13 @@
         <v>10872</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -2369,13 +2402,13 @@
         <v>34482</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2423,13 @@
         <v>51733</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -2405,13 +2438,13 @@
         <v>24209</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
@@ -2420,18 +2453,18 @@
         <v>75942</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2443,13 +2476,13 @@
         <v>16661</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -2458,13 +2491,13 @@
         <v>8796</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -2473,13 +2506,13 @@
         <v>25457</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2527,13 @@
         <v>15555</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -2509,13 +2542,13 @@
         <v>9551</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -2524,13 +2557,13 @@
         <v>25106</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2578,13 @@
         <v>39127</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -2560,13 +2593,13 @@
         <v>28121</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>65</v>
@@ -2575,13 +2608,13 @@
         <v>67249</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2629,13 @@
         <v>53234</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -2611,13 +2644,13 @@
         <v>36505</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -2626,19 +2659,19 @@
         <v>89739</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>88</v>
@@ -2647,13 +2680,13 @@
         <v>91605</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>51</v>
@@ -2662,13 +2695,13 @@
         <v>53115</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>139</v>
@@ -2677,13 +2710,13 @@
         <v>144720</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2731,13 @@
         <v>216182</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>128</v>
@@ -2713,13 +2746,13 @@
         <v>136089</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>333</v>
@@ -2728,18 +2761,18 @@
         <v>352271</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2751,13 +2784,13 @@
         <v>25124</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -2766,13 +2799,13 @@
         <v>22455</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -2781,13 +2814,13 @@
         <v>47579</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2835,13 @@
         <v>27676</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -2817,13 +2850,13 @@
         <v>23437</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
@@ -2832,13 +2865,13 @@
         <v>51113</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2886,13 @@
         <v>81749</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -2868,13 +2901,13 @@
         <v>51271</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>124</v>
@@ -2883,13 +2916,13 @@
         <v>133019</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2937,13 @@
         <v>108299</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -2919,13 +2952,13 @@
         <v>56506</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>151</v>
@@ -2934,19 +2967,19 @@
         <v>164804</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>155</v>
@@ -2955,13 +2988,13 @@
         <v>166820</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>103</v>
@@ -2970,13 +3003,13 @@
         <v>114592</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>258</v>
@@ -2985,13 +3018,13 @@
         <v>281412</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3039,13 @@
         <v>409667</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>243</v>
@@ -3021,13 +3054,13 @@
         <v>268261</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -3036,18 +3069,18 @@
         <v>677928</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3059,13 +3092,13 @@
         <v>22629</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -3074,13 +3107,13 @@
         <v>21374</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -3089,13 +3122,13 @@
         <v>44003</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3143,13 @@
         <v>25244</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3125,13 +3158,13 @@
         <v>7087</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -3140,13 +3173,13 @@
         <v>32331</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3194,13 @@
         <v>58286</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -3176,13 +3209,13 @@
         <v>44078</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>89</v>
@@ -3191,13 +3224,13 @@
         <v>102365</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3245,13 @@
         <v>67900</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -3227,13 +3260,13 @@
         <v>46729</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -3242,19 +3275,19 @@
         <v>114629</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>132</v>
@@ -3263,13 +3296,13 @@
         <v>146483</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -3278,13 +3311,13 @@
         <v>93995</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>216</v>
@@ -3293,13 +3326,13 @@
         <v>240477</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3347,13 @@
         <v>320542</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>191</v>
@@ -3329,13 +3362,13 @@
         <v>213264</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>481</v>
@@ -3344,18 +3377,18 @@
         <v>533805</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3367,13 +3400,13 @@
         <v>29787</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
@@ -3382,13 +3415,13 @@
         <v>34149</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -3397,13 +3430,13 @@
         <v>63936</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3451,13 @@
         <v>27323</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -3433,13 +3466,13 @@
         <v>27116</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -3487,10 +3520,10 @@
         <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>168</v>
@@ -3499,13 +3532,13 @@
         <v>178687</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3553,13 @@
         <v>113413</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>66</v>
@@ -3535,13 +3568,13 @@
         <v>66233</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>181</v>
@@ -3550,19 +3583,19 @@
         <v>179647</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>129</v>
@@ -3571,13 +3604,13 @@
         <v>136176</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H32" s="7">
         <v>98</v>
@@ -3586,13 +3619,13 @@
         <v>101471</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M32" s="7">
         <v>227</v>
@@ -3601,13 +3634,13 @@
         <v>237647</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3655,13 @@
         <v>415829</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>285</v>
@@ -3637,13 +3670,13 @@
         <v>298527</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>686</v>
@@ -3652,13 +3685,13 @@
         <v>714356</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3708,13 @@
         <v>97602</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H34" s="7">
         <v>85</v>
@@ -3690,13 +3723,13 @@
         <v>91047</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M34" s="7">
         <v>172</v>
@@ -3705,13 +3738,13 @@
         <v>188649</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3759,13 @@
         <v>99167</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H35" s="7">
         <v>61</v>
@@ -3741,28 +3774,28 @@
         <v>68247</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M35" s="7">
         <v>153</v>
       </c>
       <c r="N35" s="7">
-        <v>167413</v>
+        <v>167414</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3810,13 @@
         <v>296208</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="H36" s="7">
         <v>177</v>
@@ -3792,28 +3825,28 @@
         <v>196235</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M36" s="7">
         <v>458</v>
       </c>
       <c r="N36" s="7">
-        <v>492443</v>
+        <v>492444</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3861,13 @@
         <v>356282</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H37" s="7">
         <v>200</v>
@@ -3843,13 +3876,13 @@
         <v>210776</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M37" s="7">
         <v>539</v>
@@ -3858,19 +3891,19 @@
         <v>567058</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>528</v>
@@ -3879,13 +3912,13 @@
         <v>564694</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H38" s="7">
         <v>345</v>
@@ -3894,13 +3927,13 @@
         <v>374046</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M38" s="7">
         <v>873</v>
@@ -3909,13 +3942,13 @@
         <v>938740</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3963,13 @@
         <v>1413953</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>868</v>
@@ -3945,33 +3978,33 @@
         <v>940350</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>2195</v>
       </c>
       <c r="N39" s="7">
-        <v>2354303</v>
+        <v>2354304</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3992,7 +4025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C10689F-14B3-45E6-82D2-F01B0AF8EACB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12196671-4965-4925-B69F-8B100FCE94A6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4009,7 +4042,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4116,13 +4149,13 @@
         <v>4159</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4131,13 +4164,13 @@
         <v>3623</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4146,13 +4179,13 @@
         <v>7781</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4200,13 @@
         <v>6142</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>214</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4182,13 +4215,13 @@
         <v>1647</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4197,13 +4230,13 @@
         <v>7789</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>297</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4251,13 @@
         <v>10547</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4233,13 +4266,13 @@
         <v>3582</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4248,13 +4281,13 @@
         <v>14129</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4302,13 @@
         <v>6497</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>309</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4284,13 +4317,13 @@
         <v>10890</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -4299,19 +4332,19 @@
         <v>17387</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>16</v>
@@ -4320,13 +4353,13 @@
         <v>16677</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -4335,13 +4368,13 @@
         <v>10150</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -4350,13 +4383,13 @@
         <v>26827</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4404,13 @@
         <v>44021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -4386,13 +4419,13 @@
         <v>29891</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
@@ -4401,18 +4434,18 @@
         <v>73912</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4424,13 +4457,13 @@
         <v>21243</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -4439,13 +4472,13 @@
         <v>20262</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4454,13 +4487,13 @@
         <v>41505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4508,13 @@
         <v>27655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -4490,13 +4523,13 @@
         <v>18350</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -4505,13 +4538,13 @@
         <v>46005</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4559,13 @@
         <v>50108</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -4541,13 +4574,13 @@
         <v>29663</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M12" s="7">
         <v>81</v>
@@ -4556,13 +4589,13 @@
         <v>79771</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>88</v>
+        <v>350</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4610,13 @@
         <v>44956</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4592,13 +4625,13 @@
         <v>40489</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -4607,19 +4640,19 @@
         <v>85445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>355</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>50</v>
@@ -4628,13 +4661,13 @@
         <v>55307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -4643,13 +4676,13 @@
         <v>28714</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -4658,13 +4691,13 @@
         <v>84021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4712,13 @@
         <v>199269</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -4694,13 +4727,13 @@
         <v>137478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>330</v>
@@ -4709,18 +4742,18 @@
         <v>336747</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4732,13 +4765,13 @@
         <v>44189</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>367</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -4747,13 +4780,13 @@
         <v>29803</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>372</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -4762,13 +4795,13 @@
         <v>73992</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4816,13 @@
         <v>57378</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -4798,13 +4831,13 @@
         <v>44849</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>182</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -4813,13 +4846,13 @@
         <v>102226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4867,13 @@
         <v>95353</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H18" s="7">
         <v>65</v>
@@ -4849,13 +4882,13 @@
         <v>64082</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M18" s="7">
         <v>150</v>
@@ -4864,13 +4897,13 @@
         <v>159435</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4918,13 @@
         <v>97469</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>387</v>
+        <v>81</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -4900,13 +4933,13 @@
         <v>54825</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>391</v>
+        <v>175</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M19" s="7">
         <v>143</v>
@@ -4915,19 +4948,19 @@
         <v>152294</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>106</v>
@@ -4936,13 +4969,13 @@
         <v>119653</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
         <v>76</v>
@@ -4951,13 +4984,13 @@
         <v>80212</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>404</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M20" s="7">
         <v>182</v>
@@ -4966,13 +4999,13 @@
         <v>199864</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +5020,13 @@
         <v>414041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -5002,13 +5035,13 @@
         <v>273771</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>639</v>
@@ -5017,18 +5050,18 @@
         <v>687812</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5040,13 +5073,13 @@
         <v>40996</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>160</v>
+        <v>409</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>404</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -5055,13 +5088,13 @@
         <v>24436</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -5070,13 +5103,13 @@
         <v>65432</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5124,13 @@
         <v>53482</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>411</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>205</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
         <v>50</v>
@@ -5106,13 +5139,13 @@
         <v>50343</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
         <v>99</v>
@@ -5121,13 +5154,13 @@
         <v>103825</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5175,13 @@
         <v>114894</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H24" s="7">
         <v>91</v>
@@ -5157,13 +5190,13 @@
         <v>92162</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M24" s="7">
         <v>191</v>
@@ -5172,13 +5205,13 @@
         <v>207056</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5226,13 @@
         <v>74936</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>434</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -5208,13 +5241,13 @@
         <v>43305</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -5223,19 +5256,19 @@
         <v>118241</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>73</v>
@@ -5244,13 +5277,13 @@
         <v>79512</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>437</v>
+        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>58</v>
@@ -5259,13 +5292,13 @@
         <v>60313</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>439</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>440</v>
+        <v>228</v>
       </c>
       <c r="M26" s="7">
         <v>131</v>
@@ -5274,13 +5307,13 @@
         <v>139825</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5328,13 @@
         <v>363820</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>265</v>
@@ -5310,13 +5343,13 @@
         <v>270558</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -5325,18 +5358,18 @@
         <v>634378</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5348,13 +5381,13 @@
         <v>43554</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>244</v>
+        <v>449</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -5363,13 +5396,13 @@
         <v>31869</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>446</v>
+        <v>331</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>245</v>
+        <v>451</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="M28" s="7">
         <v>72</v>
@@ -5378,13 +5411,13 @@
         <v>75423</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>67</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,13 +5432,13 @@
         <v>42782</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -5414,13 +5447,13 @@
         <v>35215</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="M29" s="7">
         <v>75</v>
@@ -5429,13 +5462,13 @@
         <v>77997</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,13 +5483,13 @@
         <v>105292</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="H30" s="7">
         <v>74</v>
@@ -5465,13 +5498,13 @@
         <v>75202</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="M30" s="7">
         <v>179</v>
@@ -5480,13 +5513,13 @@
         <v>180494</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,13 +5534,13 @@
         <v>97295</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="H31" s="7">
         <v>81</v>
@@ -5516,13 +5549,13 @@
         <v>86572</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="M31" s="7">
         <v>177</v>
@@ -5531,19 +5564,19 @@
         <v>183867</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>109</v>
@@ -5552,13 +5585,13 @@
         <v>112248</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>316</v>
+        <v>483</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="H32" s="7">
         <v>88</v>
@@ -5567,13 +5600,13 @@
         <v>96616</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="M32" s="7">
         <v>197</v>
@@ -5582,13 +5615,13 @@
         <v>208864</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>350</v>
+        <v>488</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,13 +5636,13 @@
         <v>401171</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>307</v>
@@ -5618,13 +5651,13 @@
         <v>325474</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>700</v>
@@ -5633,13 +5666,13 @@
         <v>726645</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5689,13 @@
         <v>154140</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="H34" s="7">
         <v>107</v>
@@ -5671,13 +5704,13 @@
         <v>109992</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="M34" s="7">
         <v>246</v>
@@ -5686,13 +5719,13 @@
         <v>264132</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>287</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5740,13 @@
         <v>187440</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>87</v>
+        <v>502</v>
       </c>
       <c r="H35" s="7">
         <v>146</v>
@@ -5722,13 +5755,13 @@
         <v>150403</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="M35" s="7">
         <v>322</v>
@@ -5737,13 +5770,13 @@
         <v>337843</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5791,13 @@
         <v>376194</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>47</v>
+        <v>510</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="H36" s="7">
         <v>266</v>
@@ -5773,13 +5806,13 @@
         <v>264690</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="M36" s="7">
         <v>615</v>
@@ -5788,13 +5821,13 @@
         <v>640885</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>505</v>
+        <v>124</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>506</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5842,13 @@
         <v>321151</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="H37" s="7">
         <v>232</v>
@@ -5824,13 +5857,13 @@
         <v>236082</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>269</v>
+        <v>520</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="M37" s="7">
         <v>537</v>
@@ -5839,19 +5872,19 @@
         <v>557233</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>134</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>354</v>
@@ -5860,13 +5893,13 @@
         <v>383397</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>479</v>
+        <v>525</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="H38" s="7">
         <v>262</v>
@@ -5875,13 +5908,13 @@
         <v>276004</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>516</v>
+        <v>392</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="M38" s="7">
         <v>616</v>
@@ -5890,13 +5923,13 @@
         <v>659401</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>233</v>
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,13 +5944,13 @@
         <v>1422322</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>1013</v>
@@ -5926,13 +5959,13 @@
         <v>1037172</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>2336</v>
@@ -5941,18 +5974,18 @@
         <v>2459494</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6709-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1440CB69-E3F2-4974-9F1E-C7A33C236D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49166995-F0A6-49A3-B94C-74A9F29F459E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{224D075C-AD8D-4690-BEB6-E228C915E411}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DDA87919-3750-463C-83DE-BD4529FA3F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="516">
   <si>
     <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2012 (Tasa respuesta: 33,73%)</t>
   </si>
@@ -75,1564 +75,1516 @@
     <t>6,58%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
   </si>
   <si>
     <t>10,1%</t>
   </si>
   <si>
-    <t>3,79%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
   </si>
   <si>
     <t>19,84%</t>
   </si>
   <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>45,64%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
   </si>
   <si>
     <t>32,88%</t>
   </si>
   <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
   </si>
   <si>
     <t>15,12%</t>
   </si>
   <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
   <si>
     <t>20,32%</t>
   </si>
   <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
     <t>22,66%</t>
   </si>
   <si>
-    <t>24,43%</t>
+    <t>24,24%</t>
   </si>
   <si>
     <t>26,96%</t>
   </si>
   <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
   </si>
   <si>
     <t>24,93%</t>
   </si>
   <si>
-    <t>28,56%</t>
+    <t>28,79%</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +1996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2DB793-7BB7-4343-93F0-AA7A0C00E514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84F4118-F283-4008-8851-8CDC84429486}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2336,13 +2288,13 @@
         <v>4803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -2351,19 +2303,19 @@
         <v>18238</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>24</v>
@@ -2372,13 +2324,13 @@
         <v>23610</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -2387,13 +2339,13 @@
         <v>10872</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -2402,13 +2354,13 @@
         <v>34482</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,13 +2375,13 @@
         <v>51733</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -2438,13 +2390,13 @@
         <v>24209</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
@@ -2453,18 +2405,18 @@
         <v>75942</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2476,7 +2428,7 @@
         <v>16661</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>62</v>
@@ -2671,7 +2623,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>88</v>
@@ -2731,13 +2683,13 @@
         <v>216182</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>128</v>
@@ -2746,13 +2698,13 @@
         <v>136089</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>333</v>
@@ -2761,13 +2713,13 @@
         <v>352271</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,10 +2790,10 @@
         <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -2850,13 +2802,13 @@
         <v>23437</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
@@ -2865,13 +2817,13 @@
         <v>51113</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,13 +2838,13 @@
         <v>81749</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -2901,13 +2853,13 @@
         <v>51271</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>124</v>
@@ -2916,13 +2868,13 @@
         <v>133019</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,13 +2889,13 @@
         <v>108299</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -2952,13 +2904,13 @@
         <v>56506</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>151</v>
@@ -2967,19 +2919,19 @@
         <v>164804</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>155</v>
@@ -2988,13 +2940,13 @@
         <v>166820</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>103</v>
@@ -3003,13 +2955,13 @@
         <v>114592</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>258</v>
@@ -3018,13 +2970,13 @@
         <v>281412</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,13 +2991,13 @@
         <v>409667</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>243</v>
@@ -3054,13 +3006,13 @@
         <v>268261</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -3069,18 +3021,18 @@
         <v>677928</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3092,13 +3044,13 @@
         <v>22629</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -3107,13 +3059,13 @@
         <v>21374</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -3122,13 +3074,13 @@
         <v>44003</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3095,13 @@
         <v>25244</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3158,13 +3110,13 @@
         <v>7087</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -3173,13 +3125,13 @@
         <v>32331</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3146,13 @@
         <v>58286</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -3209,13 +3161,13 @@
         <v>44078</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>89</v>
@@ -3224,13 +3176,13 @@
         <v>102365</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,7 +3218,7 @@
         <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -3275,19 +3227,19 @@
         <v>114629</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>132</v>
@@ -3296,13 +3248,13 @@
         <v>146483</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -3311,13 +3263,13 @@
         <v>93995</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>216</v>
@@ -3326,13 +3278,13 @@
         <v>240477</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3299,13 @@
         <v>320542</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>191</v>
@@ -3362,13 +3314,13 @@
         <v>213264</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>481</v>
@@ -3377,18 +3329,18 @@
         <v>533805</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3400,13 +3352,13 @@
         <v>29787</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
@@ -3415,13 +3367,13 @@
         <v>34149</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -3430,13 +3382,13 @@
         <v>63936</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3403,13 @@
         <v>27323</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -3466,13 +3418,13 @@
         <v>27116</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -3481,13 +3433,13 @@
         <v>54439</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3454,13 @@
         <v>109129</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -3517,13 +3469,13 @@
         <v>69558</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>168</v>
@@ -3532,13 +3484,13 @@
         <v>178687</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>222</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3505,13 @@
         <v>113413</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>66</v>
@@ -3568,13 +3520,13 @@
         <v>66233</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>181</v>
@@ -3583,19 +3535,19 @@
         <v>179647</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>129</v>
@@ -3604,13 +3556,13 @@
         <v>136176</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>98</v>
@@ -3619,13 +3571,13 @@
         <v>101471</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>227</v>
@@ -3634,13 +3586,13 @@
         <v>237647</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3607,13 @@
         <v>415829</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>285</v>
@@ -3670,13 +3622,13 @@
         <v>298527</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>686</v>
@@ -3685,13 +3637,13 @@
         <v>714356</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3660,13 @@
         <v>97602</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>85</v>
@@ -3723,13 +3675,13 @@
         <v>91047</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>172</v>
@@ -3738,13 +3690,13 @@
         <v>188649</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,13 +3711,13 @@
         <v>99167</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>61</v>
@@ -3774,28 +3726,28 @@
         <v>68247</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>254</v>
+        <v>119</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>153</v>
       </c>
       <c r="N35" s="7">
-        <v>167414</v>
+        <v>167413</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,13 +3762,13 @@
         <v>296208</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>177</v>
@@ -3825,28 +3777,28 @@
         <v>196235</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>458</v>
       </c>
       <c r="N36" s="7">
-        <v>492444</v>
+        <v>492443</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3813,13 @@
         <v>356282</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>200</v>
@@ -3876,13 +3828,13 @@
         <v>210776</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>539</v>
@@ -3891,19 +3843,19 @@
         <v>567058</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>528</v>
@@ -3912,13 +3864,13 @@
         <v>564694</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="H38" s="7">
         <v>345</v>
@@ -3927,13 +3879,13 @@
         <v>374046</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="M38" s="7">
         <v>873</v>
@@ -3942,13 +3894,13 @@
         <v>938740</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3915,13 @@
         <v>1413953</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>868</v>
@@ -3978,33 +3930,33 @@
         <v>940350</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>2195</v>
       </c>
       <c r="N39" s="7">
-        <v>2354304</v>
+        <v>2354303</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4025,7 +3977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12196671-4965-4925-B69F-8B100FCE94A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096D8F5C-CC1E-4400-80E3-2253EDA5259F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4042,7 +3994,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4149,13 +4101,13 @@
         <v>4159</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4164,13 +4116,13 @@
         <v>3623</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4179,13 +4131,13 @@
         <v>7781</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4152,13 @@
         <v>6142</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>296</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4215,13 +4167,13 @@
         <v>1647</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4230,13 +4182,13 @@
         <v>7789</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>300</v>
+        <v>69</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,13 +4203,13 @@
         <v>10547</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4266,13 +4218,13 @@
         <v>3582</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4281,13 +4233,13 @@
         <v>14129</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,13 +4254,13 @@
         <v>6497</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>173</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4317,13 +4269,13 @@
         <v>10890</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -4332,19 +4284,19 @@
         <v>17387</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>16</v>
@@ -4353,13 +4305,13 @@
         <v>16677</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -4368,13 +4320,13 @@
         <v>10150</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -4383,13 +4335,13 @@
         <v>26827</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4356,13 @@
         <v>44021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -4419,13 +4371,13 @@
         <v>29891</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
@@ -4434,18 +4386,18 @@
         <v>73912</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4457,13 +4409,13 @@
         <v>21243</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -4472,13 +4424,13 @@
         <v>20262</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4487,13 +4439,13 @@
         <v>41505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4460,13 @@
         <v>27655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -4523,13 +4475,13 @@
         <v>18350</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -4538,13 +4490,13 @@
         <v>46005</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4511,13 @@
         <v>50108</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -4574,13 +4526,13 @@
         <v>29663</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M12" s="7">
         <v>81</v>
@@ -4589,13 +4541,13 @@
         <v>79771</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4562,13 @@
         <v>44956</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4625,13 +4577,13 @@
         <v>40489</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -4640,19 +4592,19 @@
         <v>85445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>50</v>
@@ -4661,13 +4613,13 @@
         <v>55307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -4676,13 +4628,13 @@
         <v>28714</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -4691,13 +4643,13 @@
         <v>84021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4664,13 @@
         <v>199269</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -4727,13 +4679,13 @@
         <v>137478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>330</v>
@@ -4742,13 +4694,13 @@
         <v>336747</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4717,13 @@
         <v>44189</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>169</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -4780,13 +4732,13 @@
         <v>29803</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -4795,13 +4747,13 @@
         <v>73992</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4768,13 @@
         <v>57378</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -4831,13 +4783,13 @@
         <v>44849</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -4846,13 +4798,13 @@
         <v>102226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4819,13 @@
         <v>95353</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="H18" s="7">
         <v>65</v>
@@ -4882,13 +4834,13 @@
         <v>64082</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M18" s="7">
         <v>150</v>
@@ -4897,13 +4849,13 @@
         <v>159435</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,13 +4870,13 @@
         <v>97469</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -4933,13 +4885,13 @@
         <v>54825</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>175</v>
+        <v>388</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M19" s="7">
         <v>143</v>
@@ -4948,19 +4900,19 @@
         <v>152294</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>106</v>
@@ -4969,13 +4921,13 @@
         <v>119653</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="H20" s="7">
         <v>76</v>
@@ -4984,13 +4936,13 @@
         <v>80212</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>404</v>
+        <v>292</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
         <v>182</v>
@@ -4999,13 +4951,13 @@
         <v>199864</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +4972,13 @@
         <v>414041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -5035,13 +4987,13 @@
         <v>273771</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>639</v>
@@ -5050,18 +5002,18 @@
         <v>687812</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5073,13 +5025,13 @@
         <v>40996</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>402</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -5088,13 +5040,13 @@
         <v>24436</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -5103,13 +5055,13 @@
         <v>65432</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5076,13 @@
         <v>53482</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>410</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H23" s="7">
         <v>50</v>
@@ -5139,13 +5091,13 @@
         <v>50343</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="M23" s="7">
         <v>99</v>
@@ -5154,13 +5106,13 @@
         <v>103825</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5127,13 @@
         <v>114894</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="H24" s="7">
         <v>91</v>
@@ -5190,13 +5142,13 @@
         <v>92162</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M24" s="7">
         <v>191</v>
@@ -5205,13 +5157,13 @@
         <v>207056</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5178,13 @@
         <v>74936</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -5241,13 +5193,13 @@
         <v>43305</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>437</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -5256,19 +5208,19 @@
         <v>118241</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>73</v>
@@ -5277,13 +5229,13 @@
         <v>79512</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>131</v>
+        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>58</v>
@@ -5292,13 +5244,13 @@
         <v>60313</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>440</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>228</v>
+        <v>441</v>
       </c>
       <c r="M26" s="7">
         <v>131</v>
@@ -5307,13 +5259,13 @@
         <v>139825</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5280,13 @@
         <v>363820</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>265</v>
@@ -5343,13 +5295,13 @@
         <v>270558</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -5358,18 +5310,18 @@
         <v>634378</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5381,13 +5333,13 @@
         <v>43554</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>449</v>
+        <v>331</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -5396,13 +5348,13 @@
         <v>31869</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>331</v>
+        <v>447</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>451</v>
+        <v>73</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M28" s="7">
         <v>72</v>
@@ -5411,13 +5363,13 @@
         <v>75423</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5384,13 @@
         <v>42782</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>456</v>
+        <v>240</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -5447,13 +5399,13 @@
         <v>35215</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="M29" s="7">
         <v>75</v>
@@ -5462,13 +5414,13 @@
         <v>77997</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>462</v>
+        <v>366</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5435,13 @@
         <v>105292</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>466</v>
+        <v>352</v>
       </c>
       <c r="H30" s="7">
         <v>74</v>
@@ -5498,13 +5450,13 @@
         <v>75202</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M30" s="7">
         <v>179</v>
@@ -5513,13 +5465,13 @@
         <v>180494</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>470</v>
+        <v>129</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5486,13 @@
         <v>97295</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="H31" s="7">
         <v>81</v>
@@ -5549,13 +5501,13 @@
         <v>86572</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M31" s="7">
         <v>177</v>
@@ -5564,19 +5516,19 @@
         <v>183867</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>481</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>109</v>
@@ -5585,13 +5537,13 @@
         <v>112248</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>483</v>
+        <v>306</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>484</v>
+        <v>52</v>
       </c>
       <c r="H32" s="7">
         <v>88</v>
@@ -5600,13 +5552,13 @@
         <v>96616</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>485</v>
+        <v>215</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="M32" s="7">
         <v>197</v>
@@ -5615,13 +5567,13 @@
         <v>208864</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5588,13 @@
         <v>401171</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>307</v>
@@ -5651,13 +5603,13 @@
         <v>325474</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>700</v>
@@ -5666,13 +5618,13 @@
         <v>726645</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5641,13 @@
         <v>154140</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>493</v>
+        <v>120</v>
       </c>
       <c r="H34" s="7">
         <v>107</v>
@@ -5704,13 +5656,13 @@
         <v>109992</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M34" s="7">
         <v>246</v>
@@ -5719,13 +5671,13 @@
         <v>264132</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +5692,13 @@
         <v>187440</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="H35" s="7">
         <v>146</v>
@@ -5755,13 +5707,13 @@
         <v>150403</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="M35" s="7">
         <v>322</v>
@@ -5770,13 +5722,13 @@
         <v>337843</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5743,13 @@
         <v>376194</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="H36" s="7">
         <v>266</v>
@@ -5806,13 +5758,13 @@
         <v>264690</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>514</v>
+        <v>464</v>
       </c>
       <c r="M36" s="7">
         <v>615</v>
@@ -5821,13 +5773,13 @@
         <v>640885</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>124</v>
+        <v>502</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>173</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5794,13 @@
         <v>321151</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>517</v>
+        <v>432</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H37" s="7">
         <v>232</v>
@@ -5857,13 +5809,13 @@
         <v>236082</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>519</v>
+        <v>258</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="M37" s="7">
         <v>537</v>
@@ -5872,19 +5824,19 @@
         <v>557233</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>354</v>
@@ -5893,13 +5845,13 @@
         <v>383397</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="H38" s="7">
         <v>262</v>
@@ -5908,13 +5860,13 @@
         <v>276004</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>392</v>
+        <v>26</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="M38" s="7">
         <v>616</v>
@@ -5923,13 +5875,13 @@
         <v>659401</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>529</v>
+        <v>302</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,13 +5896,13 @@
         <v>1422322</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>1013</v>
@@ -5959,13 +5911,13 @@
         <v>1037172</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>2336</v>
@@ -5974,18 +5926,18 @@
         <v>2459494</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
